--- a/input/TEK_parameters.xlsx
+++ b/input/TEK_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Brukere-felles\lfep\EBM\task_836\Energibruksmodell\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63144FE-5BB6-4800-9C4A-6BF489A3C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D67921D-5BEA-4C47-95B6-38AC78C2211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,12 +456,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B03D8-908D-4A3A-99BA-6E1BE1F7D81E}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/input/TEK_parameters.xlsx
+++ b/input/TEK_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Brukere-felles\lfep\EBM\task_836\Energibruksmodell\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D67921D-5BEA-4C47-95B6-38AC78C2211D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C731C91D-55E5-4D5B-9EA3-2C3C157F3477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TEK_ID</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>building_year</t>
+  </si>
+  <si>
+    <t>TEK69_3</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +120,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -454,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B03D8-908D-4A3A-99BA-6E1BE1F7D81E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,55 +516,64 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1996</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1978</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>2006</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2012</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>2025</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>2030</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input/TEK_parameters.xlsx
+++ b/input/TEK_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Brukere-felles\lfep\EBM\task_836\Energibruksmodell\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C731C91D-55E5-4D5B-9EA3-2C3C157F3477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C159A19-BBE0-45FA-8E25-B7F8F701BA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32070" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TEK_ID</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>TEK69_3</t>
+  </si>
+  <si>
+    <t>tek_period_start_year</t>
+  </si>
+  <si>
+    <t>tek_period_end_year</t>
   </si>
 </sst>
 </file>
@@ -463,117 +469,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B03D8-908D-4A3A-99BA-6E1BE1F7D81E}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>1950</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1963</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1956</v>
+      </c>
+      <c r="D3">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
         <v>1976</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1971</v>
+      </c>
+      <c r="D4">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
         <v>1986</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1981</v>
+      </c>
+      <c r="D5">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>1978</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1971</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7">
         <v>1996</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1991</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8">
         <v>2006</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2001</v>
+      </c>
+      <c r="D8">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9">
         <v>2012</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2011</v>
+      </c>
+      <c r="D9">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10">
         <v>2018</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>2014</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11">
         <v>2025</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>2021</v>
+      </c>
+      <c r="D11">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12">
         <v>2030</v>
+      </c>
+      <c r="C12">
+        <v>2025</v>
+      </c>
+      <c r="D12">
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/TEK_parameters.xlsx
+++ b/input/TEK_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Brukere-felles\lfep\EBM\task_836\Energibruksmodell\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Brukere-felles\lfep\EBM\work_space\Energibruksmodell\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C159A19-BBE0-45FA-8E25-B7F8F701BA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E918C6A-07BC-40A8-AFCB-E32BA93C8EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32070" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>TEK_ID</t>
-  </si>
-  <si>
     <t>TEK49</t>
   </si>
   <si>
@@ -75,10 +72,13 @@
     <t>TEK69_3</t>
   </si>
   <si>
-    <t>tek_period_start_year</t>
-  </si>
-  <si>
-    <t>tek_period_end_year</t>
+    <t>TEK</t>
+  </si>
+  <si>
+    <t>period_start_year</t>
+  </si>
+  <si>
+    <t>period_end_year</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,10 +484,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>13</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1950</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1963</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1976</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1986</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>1978</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1996</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>2006</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>2012</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>2018</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>2025</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>2030</v>

--- a/input/TEK_parameters.xlsx
+++ b/input/TEK_parameters.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Brukere-felles\lfep\EBM\work_space\Energibruksmodell\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfep\work_space\Energibruksmodell\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E918C6A-07BC-40A8-AFCB-E32BA93C8EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815C2AAE-75D2-472D-AE23-AEDB62D42A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,16 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>TEK49</t>
-  </si>
-  <si>
-    <t>TEK87</t>
-  </si>
-  <si>
-    <t>TEK97</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TEK07</t>
   </si>
@@ -57,21 +51,9 @@
     <t>TEK21</t>
   </si>
   <si>
-    <t>PRE_TEK49</t>
-  </si>
-  <si>
-    <t>TEK69_1</t>
-  </si>
-  <si>
-    <t>TEK69_2</t>
-  </si>
-  <si>
     <t>building_year</t>
   </si>
   <si>
-    <t>TEK69_3</t>
-  </si>
-  <si>
     <t>TEK</t>
   </si>
   <si>
@@ -79,6 +61,42 @@
   </si>
   <si>
     <t>period_end_year</t>
+  </si>
+  <si>
+    <t>PRE_TEK49_RES1</t>
+  </si>
+  <si>
+    <t>PRE_TEK49_RES2</t>
+  </si>
+  <si>
+    <t>PRE_TEK49_COM</t>
+  </si>
+  <si>
+    <t>TEK69_RES1</t>
+  </si>
+  <si>
+    <t>TEK69_RES2</t>
+  </si>
+  <si>
+    <t>TEK69_COM</t>
+  </si>
+  <si>
+    <t>TEK49_RES</t>
+  </si>
+  <si>
+    <t>TEK87_RES</t>
+  </si>
+  <si>
+    <t>TEK97_RES</t>
+  </si>
+  <si>
+    <t>TEK49_COM</t>
+  </si>
+  <si>
+    <t>TEK87_COM</t>
+  </si>
+  <si>
+    <t>TEK97_COM</t>
   </si>
 </sst>
 </file>
@@ -163,10 +181,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -469,36 +485,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B03D8-908D-4A3A-99BA-6E1BE1F7D81E}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1950</v>
@@ -511,142 +525,212 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1940</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="D3">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1945</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>1963</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>1956</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>1970</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1959</v>
+      </c>
+      <c r="C6">
+        <v>1956</v>
+      </c>
+      <c r="D6">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>1976</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>1971</v>
       </c>
-      <c r="D4">
+      <c r="D7">
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
         <v>1986</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>1981</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>1990</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>1978</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C9">
         <v>1971</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D9">
         <v>1990</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1996</v>
+      </c>
+      <c r="C10">
+        <v>1991</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1992</v>
+      </c>
+      <c r="C11">
+        <v>1991</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2006</v>
+      </c>
+      <c r="C12">
+        <v>2001</v>
+      </c>
+      <c r="D12">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>2002</v>
+      </c>
+      <c r="C13">
+        <v>2001</v>
+      </c>
+      <c r="D13">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>2012</v>
+      </c>
+      <c r="C14">
+        <v>2011</v>
+      </c>
+      <c r="D14">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>1996</v>
-      </c>
-      <c r="C7">
-        <v>1991</v>
-      </c>
-      <c r="D7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B15">
+        <v>2018</v>
+      </c>
+      <c r="C15">
+        <v>2014</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>2006</v>
-      </c>
-      <c r="C8">
-        <v>2001</v>
-      </c>
-      <c r="D8">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B16">
+        <v>2025</v>
+      </c>
+      <c r="C16">
+        <v>2021</v>
+      </c>
+      <c r="D16">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>2012</v>
-      </c>
-      <c r="C9">
-        <v>2011</v>
-      </c>
-      <c r="D9">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>2018</v>
-      </c>
-      <c r="C10">
-        <v>2014</v>
-      </c>
-      <c r="D10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
+      <c r="B17">
+        <v>2030</v>
+      </c>
+      <c r="C17">
         <v>2025</v>
       </c>
-      <c r="C11">
-        <v>2021</v>
-      </c>
-      <c r="D11">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>2030</v>
-      </c>
-      <c r="C12">
-        <v>2025</v>
-      </c>
-      <c r="D12">
+      <c r="D17">
         <v>2040</v>
       </c>
     </row>

--- a/input/TEK_parameters.xlsx
+++ b/input/TEK_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfep\work_space\Energibruksmodell\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815C2AAE-75D2-472D-AE23-AEDB62D42A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2044C966-B671-485B-AB93-C77DA0DF9F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -63,21 +63,9 @@
     <t>period_end_year</t>
   </si>
   <si>
-    <t>PRE_TEK49_RES1</t>
-  </si>
-  <si>
-    <t>PRE_TEK49_RES2</t>
-  </si>
-  <si>
     <t>PRE_TEK49_COM</t>
   </si>
   <si>
-    <t>TEK69_RES1</t>
-  </si>
-  <si>
-    <t>TEK69_RES2</t>
-  </si>
-  <si>
     <t>TEK69_COM</t>
   </si>
   <si>
@@ -97,6 +85,18 @@
   </si>
   <si>
     <t>TEK97_COM</t>
+  </si>
+  <si>
+    <t>PRE_TEK49_RES_1950</t>
+  </si>
+  <si>
+    <t>PRE_TEK49_RES_1940</t>
+  </si>
+  <si>
+    <t>TEK69_RES_1976</t>
+  </si>
+  <si>
+    <t>TEK69_RES_1986</t>
   </si>
 </sst>
 </file>
@@ -487,11 +487,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0B03D8-908D-4A3A-99BA-6E1BE1F7D81E}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -512,7 +514,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1950</v>
@@ -526,7 +528,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1940</v>
@@ -540,7 +542,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1945</v>
@@ -554,7 +556,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1963</v>
@@ -568,7 +570,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1959</v>
@@ -582,7 +584,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1976</v>
@@ -596,7 +598,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1986</v>
@@ -610,7 +612,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1978</v>
@@ -624,7 +626,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1996</v>
@@ -638,7 +640,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1992</v>
@@ -652,7 +654,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>2006</v>
@@ -666,7 +668,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2002</v>
